--- a/ManageSYS/templates/质量/再造梗丝产品质量总评.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品质量总评.xlsx
@@ -10,16 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
-  <si>
-    <t>再造梗丝产品理化检测报告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>产品名称：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,6 +117,18 @@
   </si>
   <si>
     <t>在线评测：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感观评测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程检测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再造梗丝产品质量总评</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +383,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -385,20 +399,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,11 +429,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,7 +736,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,7 +749,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -753,319 +760,319 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
+      <c r="A15" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
+      <c r="A22" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
+      <c r="A30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>8</v>
+      <c r="A32" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1075,7 +1082,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1084,7 +1091,7 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1093,7 +1100,7 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1102,7 +1109,7 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1111,7 +1118,7 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1120,45 +1127,45 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="A39" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>8</v>
+      <c r="A41" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1168,7 +1175,7 @@
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1177,7 +1184,7 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1186,7 +1193,7 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1195,7 +1202,7 @@
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1204,7 +1211,7 @@
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1213,46 +1220,46 @@
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
+      <c r="A48" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="D49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="E49" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="F49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="G49" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -1644,6 +1651,10 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="A48:G48"/>
     <mergeCell ref="A1:G1"/>
@@ -1658,13 +1669,6 @@
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
@@ -1672,21 +1676,24 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A22:A29"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ManageSYS/templates/质量/再造梗丝产品质量总评.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品质量总评.xlsx
@@ -1,135 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="质量总评" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
-  <si>
-    <t>产品名称：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班组：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测日期：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>检查类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检查项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技术要求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检测结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观评测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工艺段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工艺点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合格率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标准差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>绝对差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CPK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理化得分：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程检测：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感观评测：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线评测：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理化检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感观评测：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线评测：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再造梗丝产品质量总评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总评分：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理化得分：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过程检测：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感观评测：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线评测：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理化检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过程检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感观评测：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线评测：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感观评测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过程检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再造梗丝产品质量总评</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产月度：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺段(得分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -141,7 +113,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,23 +134,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -217,11 +185,70 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -229,23 +256,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -254,31 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -295,14 +283,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -351,85 +372,87 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -733,969 +756,1190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="12"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
+      <c r="A30" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="25"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="8"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="A41" s="8"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="7"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="7"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A49" s="9"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="2"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="2"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="2"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="31"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="2"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="2"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="2"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="2"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="2"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="2"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="2"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="2"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="12"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="12"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="12"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="12"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="12"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="2"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="12"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="2"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="12"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="2"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="12"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="2"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="12"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="12"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="2"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="12"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="12"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="2"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="12"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="2"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="12"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="2"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="12"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="2"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="8"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="8"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="8"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="8"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="8"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="8"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="8"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="8"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="8"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="8"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="8"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="8"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="8"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="8"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="8"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="8"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="8"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="8"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
+  <mergeCells count="113">
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D13:G13"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/ManageSYS/templates/质量/再造梗丝产品质量总评.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品质量总评.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="质量总评" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>检查类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>工艺段(得分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -208,15 +212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -237,103 +232,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -350,26 +248,66 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -388,71 +326,67 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -756,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,85 +701,90 @@
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -855,504 +794,549 @@
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="26"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="25"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="26"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="26"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="26"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="26"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="26"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="26"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="26"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="26"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="26"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="26"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="26"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31"/>
+    </row>
+    <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
         <v>21</v>
       </c>
@@ -1368,576 +1352,615 @@
       <c r="E60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="31"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="8"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="8"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="12"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="8"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="8"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="12"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="12"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="8"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="12"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="8"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="8"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="8"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="8"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="12"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="8"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="8"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="12"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="8"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="100" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="8"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="12"/>
-    </row>
-    <row r="103" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="8"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="8"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="12"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="8"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="8"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="8"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="8"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="8"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="12"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D19:G19"/>
+  <mergeCells count="101">
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F65:H65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
